--- a/branches/add-model-pages/ValueSet-whoatc-unicom.xlsx
+++ b/branches/add-model-pages/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T18:09:02+00:00</t>
+    <t>2022-11-11T18:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
